--- a/test/data/manual_test_results.xlsx
+++ b/test/data/manual_test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinay\Desktop\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F200D069-A73C-481B-A142-6A5AF1F51D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42559F2C-32BE-4B73-98BB-2825103DEB1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="14" r:id="rId1"/>
@@ -250,19 +250,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A023F4FE-DD05-4CEC-9046-5C49C0211DAF}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -918,30 +918,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1206,31 +1206,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -1677,12 +1677,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF9522A-2984-4060-BF3E-79D61A951193}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1705,12 +1705,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1737,30 +1737,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2023,36 +2023,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -2070,23 +2070,23 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -2332,21 +2332,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2374,21 +2374,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2416,33 +2416,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -2703,31 +2703,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -2988,32 +2988,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -3142,32 +3142,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
